--- a/data/processed/Tesla_Revenue_All_Scenarios.xlsx
+++ b/data/processed/Tesla_Revenue_All_Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tesla-optimus-business-analysis\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA71F31E-AFB2-4A1A-BDAB-F8D8A1BCDC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BA2248-1B9A-4AAA-956D-8757F0B1007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4815,7 +4815,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F23" sqref="F23:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4931,7 +4931,8 @@
         <v>107.72499999999999</v>
       </c>
       <c r="F5" s="25">
-        <v>0.10299999999999999</v>
+        <f>E5/E4-1</f>
+        <v>0.1027228989661173</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -4954,7 +4955,8 @@
         <v>123.35299999999999</v>
       </c>
       <c r="F6" s="25">
-        <v>0.14499999999999999</v>
+        <f t="shared" ref="F6:F10" si="1">E6/E5-1</f>
+        <v>0.14507310280807606</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -4977,7 +4979,8 @@
         <v>146.04599999999999</v>
       </c>
       <c r="F7" s="25">
-        <v>0.184</v>
+        <f t="shared" si="1"/>
+        <v>0.18396796186554032</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -5000,7 +5003,8 @@
         <v>186.125</v>
       </c>
       <c r="F8" s="25">
-        <v>0.27400000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.27442723525464596</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -5023,7 +5027,8 @@
         <v>234.42500000000001</v>
       </c>
       <c r="F9" s="25">
-        <v>0.26</v>
+        <f t="shared" si="1"/>
+        <v>0.25950302216252519</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -5046,7 +5051,8 @@
         <v>292.67899999999997</v>
       </c>
       <c r="F10" s="25">
-        <v>0.248</v>
+        <f t="shared" si="1"/>
+        <v>0.24849738722405879</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -5138,7 +5144,8 @@
         <v>123.88375000000001</v>
       </c>
       <c r="F14" s="25">
-        <v>0.10299999999999999</v>
+        <f>E14/E13-1</f>
+        <v>0.26813133381103493</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -5161,7 +5168,8 @@
         <v>141.85595000000001</v>
       </c>
       <c r="F15" s="25">
-        <v>0.14499999999999999</v>
+        <f t="shared" ref="F15:F19" si="2">E15/E14-1</f>
+        <v>0.14507310280807606</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -5184,7 +5192,8 @@
         <v>167.9529</v>
       </c>
       <c r="F16" s="25">
-        <v>0.184</v>
+        <f t="shared" si="2"/>
+        <v>0.18396796186554032</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -5207,7 +5216,8 @@
         <v>214.04375000000002</v>
       </c>
       <c r="F17" s="25">
-        <v>0.27400000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.27442723525464596</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -5230,7 +5240,8 @@
         <v>269.58875</v>
       </c>
       <c r="F18" s="25">
-        <v>0.26</v>
+        <f t="shared" si="2"/>
+        <v>0.25950302216252519</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -5253,7 +5264,8 @@
         <v>336.58085</v>
       </c>
       <c r="F19" s="25">
-        <v>0.248</v>
+        <f t="shared" si="2"/>
+        <v>0.24849738722405879</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -5345,7 +5357,8 @@
         <v>96.952500000000001</v>
       </c>
       <c r="F23" s="25">
-        <v>0.10299999999999999</v>
+        <f>E23/E22-1</f>
+        <v>-7.5493909304943374E-3</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -5368,7 +5381,8 @@
         <v>111.0177</v>
       </c>
       <c r="F24" s="25">
-        <v>0.14499999999999999</v>
+        <f t="shared" ref="F24:F28" si="3">E24/E23-1</f>
+        <v>0.14507310280807606</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -5391,7 +5405,8 @@
         <v>131.44139999999999</v>
       </c>
       <c r="F25" s="25">
-        <v>0.184</v>
+        <f t="shared" si="3"/>
+        <v>0.1839679618655401</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -5414,7 +5429,8 @@
         <v>167.51250000000002</v>
       </c>
       <c r="F26" s="25">
-        <v>0.27400000000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.27442723525464596</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -5437,7 +5453,8 @@
         <v>210.98249999999999</v>
       </c>
       <c r="F27" s="25">
-        <v>0.26</v>
+        <f t="shared" si="3"/>
+        <v>0.25950302216252497</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -5460,7 +5477,8 @@
         <v>263.41109999999998</v>
       </c>
       <c r="F28" s="25">
-        <v>0.248</v>
+        <f t="shared" si="3"/>
+        <v>0.24849738722405879</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
